--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.35/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.35/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="1111">
   <si>
     <t>anchor score</t>
   </si>
@@ -340,658 +340,658 @@
     <t>sorry</t>
   </si>
   <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>bitch</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>idiot</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>announces</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>scared</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>attorney</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>stops</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>deliveries</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>freeze</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>wipe</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>bitch</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>idiot</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>announces</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>disabled</t>
+    <t>special</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>scared</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>attorney</t>
-  </si>
-  <si>
-    <t>inc</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>flour</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>stops</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>deliveries</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>freeze</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>trade</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>wipe</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>roll</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>queue</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t>special</t>
   </si>
   <si>
     <t>better</t>
@@ -3715,7 +3715,7 @@
         <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K4">
         <v>0.8503937007874016</v>
@@ -3944,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K6">
         <v>0.8363636363636363</v>
@@ -3994,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K7">
         <v>0.8</v>
@@ -4044,7 +4044,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K8">
         <v>0.7333333333333333</v>
@@ -4094,7 +4094,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K9">
         <v>0.7278481012658228</v>
@@ -4144,28 +4144,28 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>108</v>
+        <v>323</v>
       </c>
       <c r="K10">
-        <v>0.7272727272727273</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L10">
         <v>168</v>
       </c>
       <c r="M10">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="N10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4244,7 +4244,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K12">
         <v>0.6847826086956522</v>
@@ -4294,7 +4294,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K13">
         <v>0.6808510638297872</v>
@@ -4344,7 +4344,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K14">
         <v>0.6111111111111112</v>
@@ -4394,28 +4394,28 @@
         <v>100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="K15">
-        <v>0.6024464831804281</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L15">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="M15">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4444,28 +4444,28 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
       <c r="K16">
-        <v>0.5909090909090909</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L16">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="M16">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="N16">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>36</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4544,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K18">
         <v>0.5657894736842105</v>
@@ -4594,7 +4594,7 @@
         <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K19">
         <v>0.5441176470588235</v>
@@ -4644,7 +4644,7 @@
         <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K20">
         <v>0.543859649122807</v>
@@ -4694,7 +4694,7 @@
         <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K21">
         <v>0.5224913494809689</v>
@@ -4944,7 +4944,7 @@
         <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K26">
         <v>0.40625</v>
@@ -5044,7 +5044,7 @@
         <v>8</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K28">
         <v>0.3968253968253968</v>
@@ -5144,7 +5144,7 @@
         <v>13</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K30">
         <v>0.3809523809523809</v>
@@ -5244,7 +5244,7 @@
         <v>14</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K32">
         <v>0.3726415094339622</v>
@@ -5344,7 +5344,7 @@
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K34">
         <v>0.3617021276595745</v>
@@ -5444,7 +5444,7 @@
         <v>4</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K36">
         <v>0.3560975609756097</v>
@@ -5494,7 +5494,7 @@
         <v>11</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K37">
         <v>0.3544303797468354</v>
@@ -6044,7 +6044,7 @@
         <v>13</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K48">
         <v>0.3125</v>
@@ -6794,7 +6794,7 @@
         <v>9</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K63">
         <v>0.28125</v>
@@ -6894,7 +6894,7 @@
         <v>16</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K65">
         <v>0.2802547770700637</v>
@@ -6944,7 +6944,7 @@
         <v>39</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K66">
         <v>0.273972602739726</v>
@@ -7294,7 +7294,7 @@
         <v>11</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K73">
         <v>0.2615384615384616</v>
@@ -7344,7 +7344,7 @@
         <v>61</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K74">
         <v>0.2592592592592592</v>
@@ -7394,7 +7394,7 @@
         <v>24</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K75">
         <v>0.2580645161290323</v>
@@ -7444,7 +7444,7 @@
         <v>4</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K76">
         <v>0.2547169811320755</v>
@@ -7494,7 +7494,7 @@
         <v>43</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K77">
         <v>0.2542372881355932</v>
@@ -7994,7 +7994,7 @@
         <v>22</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K87">
         <v>0.2462686567164179</v>
@@ -8294,7 +8294,7 @@
         <v>6</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K93">
         <v>0.2361111111111111</v>
@@ -8394,7 +8394,7 @@
         <v>20</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K95">
         <v>0.2333333333333333</v>
@@ -8744,7 +8744,7 @@
         <v>15</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K102">
         <v>0.2296511627906977</v>
@@ -8773,28 +8773,28 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.1126760563380282</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103">
         <v>8</v>
       </c>
-      <c r="D103">
-        <v>176</v>
-      </c>
-      <c r="E103">
-        <v>0.95</v>
-      </c>
-      <c r="F103">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G103" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103">
-        <v>63</v>
-      </c>
       <c r="J103" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K103">
         <v>0.2291196388261851</v>
@@ -8829,22 +8829,22 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
         <v>8</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K104">
         <v>0.2285714285714286</v>
@@ -8876,22 +8876,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="E105">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F105">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>388</v>
@@ -8926,25 +8926,25 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K106">
         <v>0.2253521126760563</v>
@@ -8994,7 +8994,7 @@
         <v>8</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K107">
         <v>0.2247557003257329</v>
@@ -9023,13 +9023,13 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>389</v>
@@ -9123,13 +9123,13 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>391</v>
@@ -9176,10 +9176,10 @@
         <v>0.1</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>392</v>
@@ -9226,10 +9226,10 @@
         <v>0.1</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -9241,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>393</v>
@@ -9276,10 +9276,10 @@
         <v>0.1</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>394</v>
@@ -9326,22 +9326,22 @@
         <v>0.1</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>395</v>
@@ -9376,22 +9376,22 @@
         <v>0.1</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>396</v>
@@ -9473,25 +9473,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>105</v>
@@ -9523,25 +9523,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>398</v>
@@ -9626,25 +9626,25 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C120">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="E120">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K120">
         <v>0.218978102189781</v>
@@ -9676,25 +9676,25 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K121">
         <v>0.21875</v>
@@ -9723,13 +9723,13 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -9741,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>400</v>
@@ -9773,28 +9773,28 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
       <c r="D123">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E123">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K123">
         <v>0.2152466367713005</v>
@@ -9823,13 +9823,13 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -9841,10 +9841,10 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K124">
         <v>0.2150537634408602</v>
@@ -9873,13 +9873,13 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>401</v>
@@ -10144,7 +10144,7 @@
         <v>11</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K130">
         <v>0.2137404580152672</v>
@@ -10173,13 +10173,13 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.08333333333333333</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>406</v>
@@ -10223,13 +10223,13 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -10241,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>407</v>
@@ -10273,28 +10273,28 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.07894736842105263</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D133">
         <v>3</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K133">
         <v>0.2115009746588694</v>
@@ -10326,22 +10326,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>408</v>
@@ -10379,13 +10379,13 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E135">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F135">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
@@ -10426,25 +10426,25 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K136">
         <v>0.2083333333333333</v>
@@ -10473,25 +10473,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E137">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="F137">
-        <v>0.03000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>410</v>
@@ -10523,13 +10523,13 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -10541,10 +10541,10 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K138">
         <v>0.2081850533807829</v>
@@ -10573,28 +10573,28 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K139">
         <v>0.2077922077922078</v>
@@ -10629,22 +10629,22 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
         <v>13</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K140">
         <v>0.2051282051282051</v>
@@ -10679,22 +10679,22 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
         <v>13</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K141">
         <v>0.203125</v>
@@ -10729,16 +10729,16 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
         <v>13</v>
@@ -10823,13 +10823,13 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>413</v>
@@ -10873,28 +10873,28 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E145">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F145">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K145">
         <v>0.2</v>
@@ -10926,22 +10926,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>414</v>
@@ -10979,16 +10979,16 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <v>14</v>
@@ -11023,25 +11023,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C148">
         <v>2</v>
       </c>
       <c r="D148">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="E148">
-        <v>0.6</v>
+        <v>0.97</v>
       </c>
       <c r="F148">
-        <v>0.4</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>416</v>
@@ -11073,7 +11073,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>417</v>
@@ -11123,25 +11123,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D150">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E150">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>418</v>
@@ -11179,16 +11179,16 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
         <v>15</v>
@@ -11226,25 +11226,25 @@
         <v>0.0625</v>
       </c>
       <c r="C152">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K152">
         <v>0.2</v>
@@ -11279,16 +11279,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
         <v>15</v>
@@ -11329,16 +11329,16 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
         <v>15</v>
@@ -11373,28 +11373,28 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.0625</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K155">
         <v>0.1985849056603774</v>
@@ -11423,25 +11423,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0625</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>421</v>
@@ -11473,25 +11473,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.06122448979591837</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>422</v>
@@ -11523,25 +11523,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.06060606060606061</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C158">
         <v>2</v>
       </c>
       <c r="D158">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E158">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="F158">
-        <v>0.05000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>423</v>
@@ -11573,25 +11573,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>424</v>
@@ -11626,25 +11626,25 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E160">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K160">
         <v>0.1923076923076923</v>
@@ -11679,16 +11679,16 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
         <v>17</v>
@@ -11729,16 +11729,16 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
         <v>17</v>
@@ -11823,25 +11823,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E164">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F164">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>428</v>
@@ -11873,7 +11873,7 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -11891,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>429</v>
@@ -11923,25 +11923,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.05263157894736842</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D166">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E166">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F166">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>430</v>
@@ -11973,25 +11973,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>431</v>
@@ -12023,28 +12023,28 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.05194805194805195</v>
+        <v>0.05</v>
       </c>
       <c r="C168">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K168">
         <v>0.1834862385321101</v>
@@ -12076,10 +12076,10 @@
         <v>0.05</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E169">
         <v>0.93</v>
@@ -12091,7 +12091,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>432</v>
@@ -12129,16 +12129,16 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
         <v>19</v>
@@ -12173,25 +12173,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E171">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F171">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>434</v>
@@ -12223,25 +12223,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.05</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="E172">
-        <v>0.99</v>
+        <v>0.71</v>
       </c>
       <c r="F172">
-        <v>0.01000000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>435</v>
@@ -12273,25 +12273,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.04761904761904762</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="E173">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="F173">
-        <v>0.12</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>436</v>
@@ -12323,28 +12323,28 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.04651162790697674</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K174">
         <v>0.1818181818181818</v>
@@ -12373,25 +12373,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C175">
         <v>2</v>
       </c>
       <c r="D175">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="E175">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="F175">
-        <v>0.02000000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>437</v>
@@ -12429,16 +12429,16 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
         <v>22</v>
@@ -12476,22 +12476,22 @@
         <v>0.04347826086956522</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F177">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>439</v>
@@ -12529,16 +12529,16 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
         <v>22</v>
@@ -12573,25 +12573,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.04347826086956522</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E179">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F179">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>441</v>
@@ -12623,25 +12623,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>442</v>
@@ -12673,25 +12673,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0425531914893617</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E181">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F181">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>443</v>
@@ -12726,22 +12726,22 @@
         <v>0.04166666666666666</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="E182">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F182">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>444</v>
@@ -12773,25 +12773,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E183">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>445</v>
@@ -12823,28 +12823,28 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C184">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K184">
         <v>0.1801801801801802</v>
@@ -12876,22 +12876,22 @@
         <v>0.04</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>446</v>
@@ -12923,28 +12923,28 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.04</v>
+        <v>0.0396039603960396</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.36</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K186">
         <v>0.1775700934579439</v>
@@ -12973,25 +12973,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.04</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D187">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E187">
-        <v>0.89</v>
+        <v>0.71</v>
       </c>
       <c r="F187">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>447</v>
@@ -13023,25 +13023,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0396039603960396</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C188">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E188">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>0.36</v>
+        <v>1</v>
       </c>
       <c r="G188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>448</v>
@@ -13073,25 +13073,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0392156862745098</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E189">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="F189">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>449</v>
@@ -13123,7 +13123,7 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -13141,10 +13141,10 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K190">
         <v>0.1754658385093168</v>
@@ -13173,25 +13173,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E191">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F191">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>450</v>
@@ -13229,16 +13229,16 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
         <v>26</v>
@@ -13273,25 +13273,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E193">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>452</v>
@@ -13323,25 +13323,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E194">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F194">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>453</v>
@@ -13379,16 +13379,16 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
         <v>27</v>
@@ -13429,13 +13429,13 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E196">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F196">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
@@ -13479,16 +13479,16 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E197">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
         <v>27</v>
@@ -13523,25 +13523,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E198">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F198">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>457</v>
@@ -13573,7 +13573,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -13591,7 +13591,7 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>458</v>
@@ -13629,16 +13629,16 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
         <v>28</v>
@@ -13673,25 +13673,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.03448275862068965</v>
+        <v>0.03409090909090909</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0.21</v>
       </c>
       <c r="G201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>460</v>
@@ -13723,13 +13723,13 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.03448275862068965</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -13741,7 +13741,7 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>461</v>
@@ -13773,25 +13773,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.03409090909090909</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="C203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D203">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E203">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="G203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>462</v>
@@ -13823,28 +13823,28 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.03389830508474576</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K204">
         <v>0.1666666666666667</v>
@@ -13873,28 +13873,28 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.03389830508474576</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K205">
         <v>0.1666666666666667</v>
@@ -13923,25 +13923,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.03333333333333333</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D206">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E206">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F206">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>463</v>
@@ -13973,25 +13973,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.03260869565217391</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
         <v>3</v>
       </c>
-      <c r="D207">
-        <v>23</v>
-      </c>
       <c r="E207">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="F207">
-        <v>0.13</v>
+        <v>0.33</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>464</v>
@@ -14023,13 +14023,13 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.03260869565217391</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E208">
         <v>0.75</v>
@@ -14041,7 +14041,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>465</v>
@@ -14079,13 +14079,13 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E209">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F209">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
@@ -14126,22 +14126,22 @@
         <v>0.03225806451612903</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E210">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="F210">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>467</v>
@@ -14173,25 +14173,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.03225806451612903</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D211">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E211">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>30</v>
+        <v>244</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>468</v>
@@ -14223,25 +14223,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E212">
-        <v>0.7</v>
+        <v>0.86</v>
       </c>
       <c r="F212">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>469</v>
@@ -14273,25 +14273,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.03174603174603174</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C213">
         <v>8</v>
       </c>
       <c r="D213">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>470</v>
@@ -14323,25 +14323,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E214">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F214">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>471</v>
@@ -14376,22 +14376,22 @@
         <v>0.02941176470588235</v>
       </c>
       <c r="C215">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>264</v>
+        <v>33</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>472</v>
@@ -14423,25 +14423,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02941176470588235</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D216">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E216">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F216">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>473</v>
@@ -14473,25 +14473,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>474</v>
@@ -14523,25 +14523,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02884615384615385</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E218">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>475</v>
@@ -14573,25 +14573,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E219">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F219">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>476</v>
@@ -14629,16 +14629,16 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
         <v>35</v>
@@ -14673,25 +14673,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E221">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F221">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>478</v>
@@ -14723,25 +14723,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="E222">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F222">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>479</v>
@@ -14779,13 +14779,13 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E223">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F223">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
@@ -14823,25 +14823,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.02702702702702703</v>
+        <v>0.0267175572519084</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D224">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E224">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F224">
-        <v>0.02000000000000002</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>481</v>
@@ -14873,25 +14873,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E225">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F225">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>482</v>
@@ -14923,25 +14923,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0267175572519084</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="C226">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="E226">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="F226">
-        <v>0.09999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>483</v>
@@ -14973,25 +14973,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.02631578947368421</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E227">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F227">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>484</v>
@@ -15023,25 +15023,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.02531645569620253</v>
+        <v>0.025</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E228">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F228">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>485</v>
@@ -15073,28 +15073,28 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.02531645569620253</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
         <v>5</v>
       </c>
       <c r="E229">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F229">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K229">
         <v>0.1636363636363636</v>
@@ -15123,25 +15123,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E230">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F230">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>486</v>
@@ -15223,28 +15223,28 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.02439024390243903</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D232">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E232">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K232">
         <v>0.1617021276595745</v>
@@ -15273,25 +15273,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.02439024390243903</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E233">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F233">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>488</v>
@@ -15323,25 +15323,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.02409638554216868</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C234">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>489</v>
@@ -15373,25 +15373,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D235">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E235">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>490</v>
@@ -15423,28 +15423,28 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E236">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F236">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K236">
         <v>0.16</v>
@@ -15476,22 +15476,22 @@
         <v>0.02222222222222222</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>491</v>
@@ -15526,22 +15526,22 @@
         <v>0.02222222222222222</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E238">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F238">
-        <v>0.11</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>492</v>
@@ -15573,25 +15573,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.02222222222222222</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D239">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="E239">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F239">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>493</v>
@@ -15623,28 +15623,28 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="E240">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="F240">
-        <v>0.09999999999999998</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K240">
         <v>0.1578947368421053</v>
@@ -15673,25 +15673,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.02205882352941177</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="E241">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F241">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>494</v>
@@ -15723,25 +15723,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="E242">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="F242">
-        <v>0.01000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>495</v>
@@ -15779,13 +15779,13 @@
         <v>1</v>
       </c>
       <c r="D243">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E243">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F243">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
@@ -15823,25 +15823,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.02127659574468085</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D244">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E244">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F244">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>497</v>
@@ -15873,25 +15873,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.02127659574468085</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D245">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E245">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F245">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>498</v>
@@ -15923,28 +15923,28 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.02105263157894737</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E246">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F246">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K246">
         <v>0.1538461538461539</v>
@@ -15973,25 +15973,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.02061855670103093</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="C247">
         <v>2</v>
       </c>
       <c r="D247">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E247">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="F247">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>499</v>
@@ -16023,25 +16023,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01923076923076923</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D248">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E248">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F248">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>500</v>
@@ -16073,25 +16073,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01904761904761905</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D249">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E249">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F249">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>501</v>
@@ -16123,25 +16123,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01869158878504673</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E250">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F250">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>502</v>
@@ -16173,25 +16173,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01863354037267081</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C251">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D251">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="E251">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F251">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>158</v>
+        <v>265</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>503</v>
@@ -16223,28 +16223,28 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E252">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H252">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K252">
         <v>0.1494252873563219</v>
@@ -16273,25 +16273,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C253">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D253">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="E253">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F253">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>265</v>
+        <v>162</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>504</v>
@@ -16323,28 +16323,28 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F254">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K254">
         <v>0.1481481481481481</v>
@@ -16373,25 +16373,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C255">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E255">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F255">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>505</v>
@@ -16426,22 +16426,22 @@
         <v>0.01785714285714286</v>
       </c>
       <c r="C256">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D256">
-        <v>218</v>
+        <v>8</v>
       </c>
       <c r="E256">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="F256">
-        <v>0.01000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>506</v>
@@ -16479,7 +16479,7 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E257">
         <v>0.9399999999999999</v>
@@ -16494,7 +16494,7 @@
         <v>55</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K257">
         <v>0.1475409836065574</v>
@@ -16523,28 +16523,28 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E258">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F258">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K258">
         <v>0.1466666666666667</v>
@@ -16573,25 +16573,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E259">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F259">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>507</v>
@@ -16623,28 +16623,28 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.01754385964912281</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D260">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="E260">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F260">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K260">
         <v>0.145631067961165</v>
@@ -16673,28 +16673,28 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E261">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F261">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K261">
         <v>0.1451612903225807</v>
@@ -16723,25 +16723,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.01739130434782609</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E262">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F262">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>508</v>
@@ -16773,25 +16773,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.01724137931034483</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E263">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F263">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>509</v>
@@ -16823,25 +16823,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.01694915254237288</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E264">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F264">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>510</v>
@@ -16873,28 +16873,28 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.01639344262295082</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E265">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F265">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K265">
         <v>0.1428571428571428</v>
@@ -16923,25 +16923,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.01612903225806452</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D266">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E266">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="F266">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>511</v>
@@ -16973,25 +16973,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.01612903225806452</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E267">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F267">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>512</v>
@@ -17023,25 +17023,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.0160427807486631</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C268">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E268">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="F268">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>513</v>
@@ -17073,25 +17073,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.01587301587301587</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E269">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F269">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>514</v>
@@ -17123,25 +17123,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.01587301587301587</v>
+        <v>0.01533742331288344</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D270">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="E270">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F270">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>62</v>
+        <v>321</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>515</v>
@@ -17173,7 +17173,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.01538461538461539</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -17191,10 +17191,10 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K271">
         <v>0.1428571428571428</v>
@@ -17223,28 +17223,28 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.01533742331288344</v>
+        <v>0.0145985401459854</v>
       </c>
       <c r="C272">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D272">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="E272">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F272">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K272">
         <v>0.1428571428571428</v>
@@ -17273,25 +17273,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.01470588235294118</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E273">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F273">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>516</v>
@@ -17323,25 +17323,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.0145985401459854</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="C274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D274">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E274">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F274">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>517</v>
@@ -17373,25 +17373,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.01428571428571429</v>
+        <v>0.01420765027322404</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D275">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="E275">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F275">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>69</v>
+        <v>902</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>518</v>
@@ -17423,28 +17423,28 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.01428571428571429</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D276">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E276">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F276">
-        <v>0.2</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>69</v>
+        <v>280</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K276">
         <v>0.1428571428571428</v>
@@ -17473,13 +17473,13 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.01420765027322404</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C277">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D277">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="E277">
         <v>0.8</v>
@@ -17491,7 +17491,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>902</v>
+        <v>71</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>519</v>
@@ -17523,25 +17523,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.01408450704225352</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C278">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D278">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E278">
-        <v>0.6899999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F278">
-        <v>0.3100000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>280</v>
+        <v>71</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>520</v>
@@ -17579,13 +17579,13 @@
         <v>1</v>
       </c>
       <c r="D279">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E279">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F279">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
@@ -17623,25 +17623,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.01388888888888889</v>
+        <v>0.01335656213704994</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D280">
-        <v>8</v>
+        <v>444</v>
       </c>
       <c r="E280">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F280">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>71</v>
+        <v>1699</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>522</v>
@@ -17673,25 +17673,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.01388888888888889</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E281">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F281">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>523</v>
@@ -17723,25 +17723,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.01335656213704994</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C282">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D282">
-        <v>444</v>
+        <v>22</v>
       </c>
       <c r="E282">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F282">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>1699</v>
+        <v>150</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>524</v>
@@ -17773,25 +17773,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.01333333333333333</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E283">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F283">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>525</v>
@@ -17823,25 +17823,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.0131578947368421</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="C284">
         <v>2</v>
       </c>
       <c r="D284">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E284">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F284">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>526</v>
@@ -17873,25 +17873,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.0131578947368421</v>
+        <v>0.01269393511988716</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D285">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="E285">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F285">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>75</v>
+        <v>700</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>527</v>
@@ -17923,25 +17923,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.0130718954248366</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D286">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E286">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F286">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>528</v>
@@ -17973,25 +17973,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.01269393511988716</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C287">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D287">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="E287">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F287">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>700</v>
+        <v>156</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>529</v>
@@ -18023,25 +18023,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.01265822784810127</v>
+        <v>0.01180781758957655</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D288">
-        <v>7</v>
+        <v>680</v>
       </c>
       <c r="E288">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F288">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>78</v>
+        <v>2427</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>530</v>
@@ -18073,25 +18073,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.01265822784810127</v>
+        <v>0.01157742402315485</v>
       </c>
       <c r="C289">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D289">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="E289">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F289">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>156</v>
+        <v>683</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>531</v>
@@ -18123,25 +18123,25 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.01180781758957655</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C290">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D290">
-        <v>680</v>
+        <v>16</v>
       </c>
       <c r="E290">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F290">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>2427</v>
+        <v>88</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>532</v>
@@ -18173,25 +18173,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.01157742402315485</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="C291">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D291">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="E291">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F291">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>683</v>
+        <v>531</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>533</v>
@@ -18223,25 +18223,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C292">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D292">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="E292">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F292">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>88</v>
+        <v>445</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>534</v>
@@ -18273,13 +18273,13 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.0111731843575419</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C293">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D293">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="E293">
         <v>0.95</v>
@@ -18291,7 +18291,7 @@
         <v>1</v>
       </c>
       <c r="H293">
-        <v>531</v>
+        <v>91</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>535</v>
@@ -18323,25 +18323,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.01111111111111111</v>
+        <v>0.01072386058981233</v>
       </c>
       <c r="C294">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D294">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="E294">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F294">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H294">
-        <v>445</v>
+        <v>369</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>536</v>
@@ -18373,25 +18373,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.0108695652173913</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
       <c r="D295">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E295">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F295">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>537</v>
@@ -18423,25 +18423,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.01072386058981233</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C296">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D296">
         <v>4</v>
       </c>
       <c r="E296">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F296">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H296">
-        <v>369</v>
+        <v>97</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>538</v>
@@ -18473,25 +18473,25 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.01030927835051546</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D297">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E297">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F297">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>97</v>
@@ -18523,25 +18523,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.01020408163265306</v>
+        <v>0.01</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D298">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E298">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F298">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>97</v>
+        <v>198</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>539</v>
@@ -18573,25 +18573,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.01005025125628141</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D299">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E299">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F299">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>540</v>
@@ -18623,25 +18623,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>0.01</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D300">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E300">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F300">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>198</v>
+        <v>105</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>541</v>
@@ -18673,13 +18673,13 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0.009708737864077669</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C301">
         <v>1</v>
       </c>
       <c r="D301">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E301">
         <v>0.98</v>
@@ -18691,7 +18691,7 @@
         <v>1</v>
       </c>
       <c r="H301">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>542</v>
@@ -18723,25 +18723,25 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>0.009433962264150943</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C302">
         <v>1</v>
       </c>
       <c r="D302">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E302">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="F302">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G302" t="b">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>543</v>
@@ -18773,25 +18773,25 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>0.009345794392523364</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
       <c r="D303">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E303">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F303">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>544</v>
@@ -18823,25 +18823,25 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>0.009174311926605505</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C304">
         <v>1</v>
       </c>
       <c r="D304">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E304">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F304">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G304" t="b">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>545</v>
@@ -18873,25 +18873,25 @@
         <v>310</v>
       </c>
       <c r="B305">
-        <v>0.009009009009009009</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
       <c r="D305">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E305">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F305">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G305" t="b">
         <v>1</v>
       </c>
       <c r="H305">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>546</v>
@@ -18923,25 +18923,25 @@
         <v>311</v>
       </c>
       <c r="B306">
-        <v>0.008928571428571428</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="C306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D306">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E306">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F306">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G306" t="b">
         <v>1</v>
       </c>
       <c r="H306">
-        <v>111</v>
+        <v>232</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>547</v>
@@ -18973,13 +18973,13 @@
         <v>312</v>
       </c>
       <c r="B307">
-        <v>0.008849557522123894</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
       <c r="D307">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E307">
         <v>0.9399999999999999</v>
@@ -18991,7 +18991,7 @@
         <v>1</v>
       </c>
       <c r="H307">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>548</v>
@@ -19023,25 +19023,25 @@
         <v>313</v>
       </c>
       <c r="B308">
-        <v>0.008547008547008548</v>
+        <v>0.007905138339920948</v>
       </c>
       <c r="C308">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D308">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E308">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F308">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G308" t="b">
         <v>1</v>
       </c>
       <c r="H308">
-        <v>232</v>
+        <v>502</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>549</v>
@@ -19073,13 +19073,13 @@
         <v>314</v>
       </c>
       <c r="B309">
-        <v>0.00819672131147541</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="C309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D309">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E309">
         <v>0.9399999999999999</v>
@@ -19091,10 +19091,10 @@
         <v>1</v>
       </c>
       <c r="H309">
-        <v>121</v>
+        <v>328</v>
       </c>
       <c r="J309" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K309">
         <v>0.141025641025641</v>
@@ -19123,28 +19123,28 @@
         <v>315</v>
       </c>
       <c r="B310">
-        <v>0.007905138339920948</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
         <v>4</v>
       </c>
-      <c r="D310">
-        <v>43</v>
-      </c>
       <c r="E310">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="F310">
-        <v>0.08999999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="G310" t="b">
         <v>1</v>
       </c>
       <c r="H310">
-        <v>502</v>
+        <v>187</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K310">
         <v>0.140625</v>
@@ -19173,13 +19173,13 @@
         <v>316</v>
       </c>
       <c r="B311">
-        <v>0.006060606060606061</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="C311">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D311">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E311">
         <v>0.9399999999999999</v>
@@ -19191,7 +19191,7 @@
         <v>1</v>
       </c>
       <c r="H311">
-        <v>328</v>
+        <v>213</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>550</v>
@@ -19223,25 +19223,25 @@
         <v>317</v>
       </c>
       <c r="B312">
-        <v>0.005319148936170213</v>
+        <v>0.004656160458452722</v>
       </c>
       <c r="C312">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D312">
-        <v>4</v>
+        <v>422</v>
       </c>
       <c r="E312">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F312">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G312" t="b">
         <v>1</v>
       </c>
       <c r="H312">
-        <v>187</v>
+        <v>2779</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>551</v>
@@ -19273,25 +19273,25 @@
         <v>318</v>
       </c>
       <c r="B313">
-        <v>0.004672897196261682</v>
+        <v>0.004184100418410041</v>
       </c>
       <c r="C313">
         <v>1</v>
       </c>
       <c r="D313">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E313">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F313">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G313" t="b">
         <v>1</v>
       </c>
       <c r="H313">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>552</v>
@@ -19323,25 +19323,25 @@
         <v>319</v>
       </c>
       <c r="B314">
-        <v>0.004656160458452722</v>
+        <v>0.004059539918809201</v>
       </c>
       <c r="C314">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D314">
-        <v>422</v>
+        <v>131</v>
       </c>
       <c r="E314">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F314">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G314" t="b">
         <v>1</v>
       </c>
       <c r="H314">
-        <v>2779</v>
+        <v>736</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>553</v>
@@ -19373,25 +19373,25 @@
         <v>320</v>
       </c>
       <c r="B315">
-        <v>0.004184100418410041</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="C315">
         <v>1</v>
       </c>
       <c r="D315">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E315">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F315">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G315" t="b">
         <v>1</v>
       </c>
       <c r="H315">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>554</v>
@@ -19423,25 +19423,25 @@
         <v>321</v>
       </c>
       <c r="B316">
-        <v>0.004059539918809201</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="C316">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D316">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E316">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F316">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G316" t="b">
         <v>1</v>
       </c>
       <c r="H316">
-        <v>736</v>
+        <v>1036</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>555</v>
@@ -19473,25 +19473,25 @@
         <v>322</v>
       </c>
       <c r="B317">
-        <v>0.003952569169960474</v>
+        <v>0.003389830508474576</v>
       </c>
       <c r="C317">
         <v>1</v>
       </c>
       <c r="D317">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E317">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="F317">
-        <v>0.03000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="G317" t="b">
         <v>1</v>
       </c>
       <c r="H317">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>556</v>
@@ -19519,30 +19519,6 @@
       </c>
     </row>
     <row r="318" spans="1:17">
-      <c r="A318" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B318">
-        <v>0.003846153846153846</v>
-      </c>
-      <c r="C318">
-        <v>4</v>
-      </c>
-      <c r="D318">
-        <v>125</v>
-      </c>
-      <c r="E318">
-        <v>0.97</v>
-      </c>
-      <c r="F318">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G318" t="b">
-        <v>1</v>
-      </c>
-      <c r="H318">
-        <v>1036</v>
-      </c>
       <c r="J318" s="1" t="s">
         <v>557</v>
       </c>
@@ -19569,30 +19545,6 @@
       </c>
     </row>
     <row r="319" spans="1:17">
-      <c r="A319" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B319">
-        <v>0.003389830508474576</v>
-      </c>
-      <c r="C319">
-        <v>1</v>
-      </c>
-      <c r="D319">
-        <v>6</v>
-      </c>
-      <c r="E319">
-        <v>0.83</v>
-      </c>
-      <c r="F319">
-        <v>0.17</v>
-      </c>
-      <c r="G319" t="b">
-        <v>1</v>
-      </c>
-      <c r="H319">
-        <v>294</v>
-      </c>
       <c r="J319" s="1" t="s">
         <v>558</v>
       </c>
@@ -19750,7 +19702,7 @@
     </row>
     <row r="325" spans="10:17">
       <c r="J325" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K325">
         <v>0.1333333333333333</v>
@@ -19776,7 +19728,7 @@
     </row>
     <row r="326" spans="10:17">
       <c r="J326" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K326">
         <v>0.1333333333333333</v>
@@ -19984,7 +19936,7 @@
     </row>
     <row r="334" spans="10:17">
       <c r="J334" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K334">
         <v>0.1282936010037641</v>
@@ -20088,7 +20040,7 @@
     </row>
     <row r="338" spans="10:17">
       <c r="J338" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K338">
         <v>0.1259842519685039</v>
@@ -21336,7 +21288,7 @@
     </row>
     <row r="386" spans="10:17">
       <c r="J386" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K386">
         <v>0.1219512195121951</v>
@@ -21362,7 +21314,7 @@
     </row>
     <row r="387" spans="10:17">
       <c r="J387" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K387">
         <v>0.1212121212121212</v>
@@ -21466,7 +21418,7 @@
     </row>
     <row r="391" spans="10:17">
       <c r="J391" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K391">
         <v>0.12</v>
@@ -21492,7 +21444,7 @@
     </row>
     <row r="392" spans="10:17">
       <c r="J392" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K392">
         <v>0.12</v>
@@ -21570,7 +21522,7 @@
     </row>
     <row r="395" spans="10:17">
       <c r="J395" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K395">
         <v>0.1181102362204724</v>
@@ -21700,7 +21652,7 @@
     </row>
     <row r="400" spans="10:17">
       <c r="J400" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K400">
         <v>0.1176470588235294</v>
@@ -21908,7 +21860,7 @@
     </row>
     <row r="408" spans="10:17">
       <c r="J408" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K408">
         <v>0.1176470588235294</v>
@@ -21934,7 +21886,7 @@
     </row>
     <row r="409" spans="10:17">
       <c r="J409" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K409">
         <v>0.1167883211678832</v>
@@ -22090,7 +22042,7 @@
     </row>
     <row r="415" spans="10:17">
       <c r="J415" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K415">
         <v>0.1149425287356322</v>
@@ -22116,7 +22068,7 @@
     </row>
     <row r="416" spans="10:17">
       <c r="J416" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K416">
         <v>0.1145833333333333</v>
@@ -22246,7 +22198,7 @@
     </row>
     <row r="421" spans="10:17">
       <c r="J421" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K421">
         <v>0.1129032258064516</v>
@@ -22272,7 +22224,7 @@
     </row>
     <row r="422" spans="10:17">
       <c r="J422" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K422">
         <v>0.1121495327102804</v>
@@ -22792,7 +22744,7 @@
     </row>
     <row r="442" spans="10:17">
       <c r="J442" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K442">
         <v>0.1111111111111111</v>
@@ -23104,7 +23056,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K454">
         <v>0.108695652173913</v>
@@ -23234,7 +23186,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K459">
         <v>0.1076923076923077</v>
@@ -23572,7 +23524,7 @@
     </row>
     <row r="472" spans="10:17">
       <c r="J472" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K472">
         <v>0.104580812445981</v>
@@ -23884,7 +23836,7 @@
     </row>
     <row r="484" spans="10:17">
       <c r="J484" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K484">
         <v>0.1014492753623188</v>
@@ -23910,7 +23862,7 @@
     </row>
     <row r="485" spans="10:17">
       <c r="J485" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K485">
         <v>0.1012658227848101</v>
@@ -23962,7 +23914,7 @@
     </row>
     <row r="487" spans="10:17">
       <c r="J487" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K487">
         <v>0.1</v>
@@ -24326,7 +24278,7 @@
     </row>
     <row r="501" spans="10:17">
       <c r="J501" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K501">
         <v>0.1</v>
@@ -24898,7 +24850,7 @@
     </row>
     <row r="523" spans="10:17">
       <c r="J523" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K523">
         <v>0.09677419354838709</v>
@@ -25002,7 +24954,7 @@
     </row>
     <row r="527" spans="10:17">
       <c r="J527" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K527">
         <v>0.09677419354838709</v>
@@ -25288,7 +25240,7 @@
     </row>
     <row r="538" spans="10:17">
       <c r="J538" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K538">
         <v>0.09259259259259259</v>
@@ -25314,7 +25266,7 @@
     </row>
     <row r="539" spans="10:17">
       <c r="J539" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K539">
         <v>0.09183673469387756</v>
@@ -25548,7 +25500,7 @@
     </row>
     <row r="548" spans="10:17">
       <c r="J548" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K548">
         <v>0.09090909090909091</v>
@@ -25574,7 +25526,7 @@
     </row>
     <row r="549" spans="10:17">
       <c r="J549" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K549">
         <v>0.09090909090909091</v>
@@ -25600,7 +25552,7 @@
     </row>
     <row r="550" spans="10:17">
       <c r="J550" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K550">
         <v>0.09090909090909091</v>
@@ -25730,7 +25682,7 @@
     </row>
     <row r="555" spans="10:17">
       <c r="J555" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K555">
         <v>0.09090909090909091</v>
@@ -26276,7 +26228,7 @@
     </row>
     <row r="576" spans="10:17">
       <c r="J576" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K576">
         <v>0.08974358974358974</v>
@@ -26510,7 +26462,7 @@
     </row>
     <row r="585" spans="10:17">
       <c r="J585" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K585">
         <v>0.08379888268156424</v>
@@ -27186,7 +27138,7 @@
     </row>
     <row r="611" spans="10:17">
       <c r="J611" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K611">
         <v>0.08108108108108109</v>
@@ -27238,7 +27190,7 @@
     </row>
     <row r="613" spans="10:17">
       <c r="J613" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K613">
         <v>0.08</v>
@@ -27368,7 +27320,7 @@
     </row>
     <row r="618" spans="10:17">
       <c r="J618" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K618">
         <v>0.08</v>
@@ -27420,7 +27372,7 @@
     </row>
     <row r="620" spans="10:17">
       <c r="J620" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K620">
         <v>0.07926829268292683</v>
@@ -27498,7 +27450,7 @@
     </row>
     <row r="623" spans="10:17">
       <c r="J623" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K623">
         <v>0.07894736842105263</v>
@@ -27576,7 +27528,7 @@
     </row>
     <row r="626" spans="10:17">
       <c r="J626" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K626">
         <v>0.07692307692307693</v>
@@ -28122,7 +28074,7 @@
     </row>
     <row r="647" spans="10:17">
       <c r="J647" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K647">
         <v>0.07272727272727272</v>
@@ -28148,7 +28100,7 @@
     </row>
     <row r="648" spans="10:17">
       <c r="J648" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K648">
         <v>0.07216494845360824</v>
@@ -28174,7 +28126,7 @@
     </row>
     <row r="649" spans="10:17">
       <c r="J649" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K649">
         <v>0.07208872458410351</v>
@@ -28226,7 +28178,7 @@
     </row>
     <row r="651" spans="10:17">
       <c r="J651" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K651">
         <v>0.07142857142857142</v>
@@ -28304,7 +28256,7 @@
     </row>
     <row r="654" spans="10:17">
       <c r="J654" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K654">
         <v>0.07142857142857142</v>
@@ -28980,7 +28932,7 @@
     </row>
     <row r="680" spans="10:17">
       <c r="J680" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K680">
         <v>0.06986899563318777</v>
@@ -29136,7 +29088,7 @@
     </row>
     <row r="686" spans="10:17">
       <c r="J686" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K686">
         <v>0.0673076923076923</v>
@@ -29188,7 +29140,7 @@
     </row>
     <row r="688" spans="10:17">
       <c r="J688" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K688">
         <v>0.06666666666666667</v>
@@ -29396,7 +29348,7 @@
     </row>
     <row r="696" spans="10:17">
       <c r="J696" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K696">
         <v>0.06666666666666667</v>
@@ -29812,7 +29764,7 @@
     </row>
     <row r="712" spans="10:17">
       <c r="J712" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K712">
         <v>0.06382978723404255</v>
@@ -30072,7 +30024,7 @@
     </row>
     <row r="722" spans="10:17">
       <c r="J722" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K722">
         <v>0.0625</v>
@@ -30202,7 +30154,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K727">
         <v>0.06122448979591837</v>
@@ -30904,7 +30856,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K754">
         <v>0.05555555555555555</v>
@@ -31164,7 +31116,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K764">
         <v>0.05555555555555555</v>
@@ -31216,7 +31168,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K766">
         <v>0.05549738219895288</v>
@@ -31268,7 +31220,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K768">
         <v>0.0547945205479452</v>
@@ -31372,7 +31324,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K772">
         <v>0.05405405405405406</v>
@@ -31476,7 +31428,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K776">
         <v>0.05333333333333334</v>
@@ -31554,7 +31506,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K779">
         <v>0.05263157894736842</v>
@@ -31918,7 +31870,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K793">
         <v>0.05128205128205128</v>
@@ -32568,7 +32520,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K818">
         <v>0.04615384615384616</v>
@@ -33270,7 +33222,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K845">
         <v>0.04347826086956522</v>
@@ -33920,7 +33872,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K870">
         <v>0.03846153846153846</v>
@@ -34050,7 +34002,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K875">
         <v>0.03846153846153846</v>
@@ -34102,7 +34054,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K877">
         <v>0.0375</v>
@@ -34440,7 +34392,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K890">
         <v>0.03571428571428571</v>
@@ -34466,7 +34418,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K891">
         <v>0.03571428571428571</v>
@@ -34518,7 +34470,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K893">
         <v>0.03571428571428571</v>
@@ -34674,7 +34626,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K899">
         <v>0.03448275862068965</v>
@@ -34882,7 +34834,7 @@
     </row>
     <row r="907" spans="10:17">
       <c r="J907" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K907">
         <v>0.03174603174603174</v>
@@ -34960,7 +34912,7 @@
     </row>
     <row r="910" spans="10:17">
       <c r="J910" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K910">
         <v>0.03114186851211072</v>
@@ -35064,7 +35016,7 @@
     </row>
     <row r="914" spans="10:17">
       <c r="J914" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K914">
         <v>0.03</v>
@@ -35142,7 +35094,7 @@
     </row>
     <row r="917" spans="10:17">
       <c r="J917" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K917">
         <v>0.02857142857142857</v>
@@ -35454,7 +35406,7 @@
     </row>
     <row r="929" spans="10:17">
       <c r="J929" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K929">
         <v>0.025</v>
@@ -35610,7 +35562,7 @@
     </row>
     <row r="935" spans="10:17">
       <c r="J935" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K935">
         <v>0.02272727272727273</v>
@@ -35792,7 +35744,7 @@
     </row>
     <row r="942" spans="10:17">
       <c r="J942" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K942">
         <v>0.01724137931034483</v>
@@ -35844,7 +35796,7 @@
     </row>
     <row r="944" spans="10:17">
       <c r="J944" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K944">
         <v>0.01672240802675585</v>
@@ -35870,7 +35822,7 @@
     </row>
     <row r="945" spans="10:17">
       <c r="J945" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K945">
         <v>0.01578947368421053</v>
@@ -36052,7 +36004,7 @@
     </row>
     <row r="952" spans="10:17">
       <c r="J952" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K952">
         <v>0.01075268817204301</v>
@@ -36078,7 +36030,7 @@
     </row>
     <row r="953" spans="10:17">
       <c r="J953" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K953">
         <v>0.008547008547008548</v>
